--- a/combinatorial/test exec/combinatorial 테스트결과 A4.xlsx
+++ b/combinatorial/test exec/combinatorial 테스트결과 A4.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\combinatorial\test exec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FAEE52-EDB2-41FE-91E4-F81A35923A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3685E496-FC6C-4C37-827B-5D2434005D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트케이스 포맷" sheetId="1" r:id="rId1"/>
     <sheet name="테스트 실행 포맷" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'테스트 실행 포맷'!$A$1:$G$121</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="293">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1059,6 +1062,128 @@
   <si>
     <t>부수효과
 해결 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>큰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>분류</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>케이스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeKeeping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopWatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,7 +1191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,6 +1298,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1463,7 +1595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1501,12 +1633,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1524,9 +1650,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1600,46 +1723,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <b/>
@@ -1993,9 +2108,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2007,9 +2122,11 @@
     <col min="4" max="4" width="32.125" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="29.25" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>118</v>
       </c>
@@ -2028,8 +2145,14 @@
       <c r="F1" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I1" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>122</v>
       </c>
@@ -2048,8 +2171,15 @@
       <c r="F2" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I2" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" s="49">
+        <f>G8</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>122</v>
       </c>
@@ -2068,8 +2198,15 @@
       <c r="F3" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="I3" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="J3" s="49">
+        <f>G25</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>122</v>
       </c>
@@ -2088,8 +2225,15 @@
       <c r="F4" s="11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I4" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="J4" s="49">
+        <f>G41</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>122</v>
       </c>
@@ -2108,8 +2252,15 @@
       <c r="F5" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I5" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="J5" s="49">
+        <f>G60</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>122</v>
       </c>
@@ -2128,8 +2279,15 @@
       <c r="F6" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I6" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="J6" s="49">
+        <f>G90</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>122</v>
       </c>
@@ -2148,8 +2306,15 @@
       <c r="F7" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I7" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="J7" s="49">
+        <f>G97</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>122</v>
       </c>
@@ -2168,8 +2333,19 @@
       <c r="F8" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f>COUNTIF(C2:C8, "*")</f>
+        <v>7</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="J8" s="49">
+        <f>G101</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>132</v>
       </c>
@@ -2188,8 +2364,15 @@
       <c r="F9" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="I9" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="J9" s="49">
+        <f>G117</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>132</v>
       </c>
@@ -2208,8 +2391,15 @@
       <c r="F10" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="I10" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="J10" s="51">
+        <f>SUM(J2:J9)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>132</v>
       </c>
@@ -2229,7 +2419,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>132</v>
       </c>
@@ -2249,7 +2439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>132</v>
       </c>
@@ -2269,7 +2459,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>132</v>
       </c>
@@ -2289,7 +2479,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>132</v>
       </c>
@@ -2309,7 +2499,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>132</v>
       </c>
@@ -2329,7 +2519,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>132</v>
       </c>
@@ -2349,7 +2539,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>132</v>
       </c>
@@ -2369,7 +2559,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>132</v>
       </c>
@@ -2389,7 +2579,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>132</v>
       </c>
@@ -2409,7 +2599,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>132</v>
       </c>
@@ -2429,7 +2619,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>132</v>
       </c>
@@ -2449,7 +2639,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>132</v>
       </c>
@@ -2469,7 +2659,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>132</v>
       </c>
@@ -2489,7 +2679,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>132</v>
       </c>
@@ -2508,8 +2698,12 @@
       <c r="F25" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f>COUNTIF(C9:C25, "*")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>151</v>
       </c>
@@ -2529,7 +2723,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>151</v>
       </c>
@@ -2549,7 +2743,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>151</v>
       </c>
@@ -2569,7 +2763,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>151</v>
       </c>
@@ -2589,7 +2783,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>151</v>
       </c>
@@ -2609,7 +2803,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>151</v>
       </c>
@@ -2629,7 +2823,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>151</v>
       </c>
@@ -2649,7 +2843,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>151</v>
       </c>
@@ -2669,7 +2863,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>151</v>
       </c>
@@ -2689,7 +2883,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>151</v>
       </c>
@@ -2709,7 +2903,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>151</v>
       </c>
@@ -2729,7 +2923,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>151</v>
       </c>
@@ -2749,7 +2943,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>151</v>
       </c>
@@ -2769,7 +2963,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>151</v>
       </c>
@@ -2789,7 +2983,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>151</v>
       </c>
@@ -2809,7 +3003,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>151</v>
       </c>
@@ -2828,8 +3022,12 @@
       <c r="F41" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <f>COUNTIF(C26:C41, "*")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>176</v>
       </c>
@@ -2849,7 +3047,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>176</v>
       </c>
@@ -2869,7 +3067,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>176</v>
       </c>
@@ -2889,7 +3087,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>176</v>
       </c>
@@ -2909,7 +3107,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>176</v>
       </c>
@@ -2929,7 +3127,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>176</v>
       </c>
@@ -2949,7 +3147,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>176</v>
       </c>
@@ -2969,7 +3167,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>176</v>
       </c>
@@ -2989,7 +3187,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>176</v>
       </c>
@@ -3009,7 +3207,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>176</v>
       </c>
@@ -3029,7 +3227,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>176</v>
       </c>
@@ -3049,7 +3247,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>176</v>
       </c>
@@ -3069,7 +3267,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>176</v>
       </c>
@@ -3089,7 +3287,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>176</v>
       </c>
@@ -3099,13 +3297,13 @@
       <c r="C55" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="43"/>
+      <c r="F55" s="44"/>
+    </row>
+    <row r="56" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>176</v>
       </c>
@@ -3115,13 +3313,13 @@
       <c r="C56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="43"/>
+      <c r="F56" s="44"/>
+    </row>
+    <row r="57" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>176</v>
       </c>
@@ -3131,13 +3329,13 @@
       <c r="C57" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E57" s="43"/>
+      <c r="F57" s="44"/>
+    </row>
+    <row r="58" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>176</v>
       </c>
@@ -3147,13 +3345,13 @@
       <c r="C58" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E58" s="43"/>
+      <c r="F58" s="44"/>
+    </row>
+    <row r="59" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>176</v>
       </c>
@@ -3163,13 +3361,13 @@
       <c r="C59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E59" s="43"/>
+      <c r="F59" s="44"/>
+    </row>
+    <row r="60" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>176</v>
       </c>
@@ -3179,13 +3377,17 @@
       <c r="C60" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="E60" s="43"/>
+      <c r="F60" s="44"/>
+      <c r="G60">
+        <f>COUNTIF(C42:C60, "*")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>201</v>
       </c>
@@ -3205,7 +3407,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>201</v>
       </c>
@@ -3225,7 +3427,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>201</v>
       </c>
@@ -3245,7 +3447,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>201</v>
       </c>
@@ -3585,7 +3787,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>201</v>
       </c>
@@ -3605,7 +3807,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>201</v>
       </c>
@@ -3625,7 +3827,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>201</v>
       </c>
@@ -3645,7 +3847,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>201</v>
       </c>
@@ -3665,7 +3867,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>201</v>
       </c>
@@ -3685,7 +3887,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>201</v>
       </c>
@@ -3705,7 +3907,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>201</v>
       </c>
@@ -3725,7 +3927,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>201</v>
       </c>
@@ -3745,7 +3947,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>201</v>
       </c>
@@ -3765,7 +3967,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>201</v>
       </c>
@@ -3784,8 +3986,12 @@
       <c r="F90" s="11" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <f>COUNTIF(C61:C90, "*")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>227</v>
       </c>
@@ -3805,7 +4011,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>227</v>
       </c>
@@ -3825,7 +4031,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>227</v>
       </c>
@@ -3845,7 +4051,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>227</v>
       </c>
@@ -3865,7 +4071,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>227</v>
       </c>
@@ -3885,7 +4091,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>227</v>
       </c>
@@ -3905,7 +4111,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>227</v>
       </c>
@@ -3924,8 +4130,12 @@
       <c r="F97" s="11" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <f>COUNTIF(C91:C97, "*")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>237</v>
       </c>
@@ -3945,7 +4155,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>237</v>
       </c>
@@ -3965,7 +4175,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>237</v>
       </c>
@@ -3985,7 +4195,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>237</v>
       </c>
@@ -4004,8 +4214,12 @@
       <c r="F101" s="11" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <f>COUNTIF(C98:C101, "*")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>247</v>
       </c>
@@ -4025,7 +4239,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>247</v>
       </c>
@@ -4045,7 +4259,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>247</v>
       </c>
@@ -4065,7 +4279,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>247</v>
       </c>
@@ -4085,7 +4299,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>247</v>
       </c>
@@ -4105,7 +4319,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>247</v>
       </c>
@@ -4125,7 +4339,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>247</v>
       </c>
@@ -4145,7 +4359,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="3">
         <v>108</v>
@@ -4163,7 +4377,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>247</v>
       </c>
@@ -4183,7 +4397,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>247</v>
       </c>
@@ -4203,7 +4417,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>247</v>
       </c>
@@ -4223,7 +4437,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>247</v>
       </c>
@@ -4243,7 +4457,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>247</v>
       </c>
@@ -4263,7 +4477,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>247</v>
       </c>
@@ -4283,7 +4497,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>247</v>
       </c>
@@ -4303,7 +4517,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10"/>
       <c r="B117" s="6">
         <v>116</v>
@@ -4317,18 +4531,28 @@
       <c r="E117" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F117" s="15" t="s">
+      <c r="F117" s="13" t="s">
         <v>260</v>
+      </c>
+      <c r="G117">
+        <f>COUNTIF(C102:C117:C117, "*")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G118">
+        <f>SUM(G2:G117)</f>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D60:F60"/>
     <mergeCell ref="D55:F55"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="D57:F57"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4338,10 +4562,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA991DCF-D0C7-493C-9A0A-83C276513055}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4353,2620 +4578,2625 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+    <row r="2" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="E2" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="E3" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="E4" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="E5" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="E6" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="E7" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="E8" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="G9" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="G10" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="E11" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="E12" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="E13" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="G14" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="67.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="G15" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="E16" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="E17" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="G18" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="67.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G19" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="G19" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="E20" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+      <c r="E21" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+      <c r="G22" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G23" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+      <c r="G23" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+      <c r="E24" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+      <c r="E25" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="E26" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G27" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+      <c r="G27" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+      <c r="G28" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
+      <c r="E29" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+      <c r="E30" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+      <c r="E31" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="E32" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+      <c r="E33" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+      <c r="E34" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
+      <c r="E35" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
+      <c r="E36" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
+      <c r="E37" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
+      <c r="E38" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
+      <c r="E39" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
+      <c r="E40" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
+      <c r="E41" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E42" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
+      <c r="E42" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
+      <c r="E43" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
+      <c r="E44" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
+      <c r="E45" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
         <v>45</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="G46" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
+      <c r="G46" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
+      <c r="E47" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14">
         <v>47</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
+      <c r="E48" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14">
         <v>48</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A50" s="16">
+      <c r="E49" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14">
         <v>49</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
+      <c r="E50" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="32"/>
+      <c r="G50" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
         <v>50</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E51" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
+      <c r="E51" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
         <v>51</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F52" s="40" t="s">
+      <c r="F52" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="G52" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
+      <c r="G52" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14">
         <v>52</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
+      <c r="E53" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F53" s="32"/>
+      <c r="G53" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14">
         <v>53</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A55" s="16">
+      <c r="E54" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" s="32"/>
+      <c r="G54" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
         <v>54</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="26" t="s">
+      <c r="D55" s="45"/>
+      <c r="E55" s="22" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
+      <c r="F55" s="32"/>
+      <c r="G55" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14">
         <v>55</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="26" t="s">
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="22" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
+      <c r="F56" s="32"/>
+      <c r="G56" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14">
         <v>56</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="26" t="s">
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="22" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
+      <c r="F57" s="32"/>
+      <c r="G57" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14">
         <v>57</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="25" t="s">
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" s="37"/>
+      <c r="G58" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" s="32"/>
+      <c r="G59" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14">
+        <v>60</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F58" s="40" t="s">
+      <c r="F61" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="G58" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="16">
-        <v>58</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="16">
-        <v>59</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A61" s="16">
-        <v>60</v>
-      </c>
-      <c r="B61" s="17" t="s">
+      <c r="G61" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14">
         <v>61</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="B62" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14">
+        <v>62</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14">
+        <v>63</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D64" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14">
+        <v>64</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14">
+        <v>65</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
+        <v>66</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14">
+        <v>67</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14">
+        <v>68</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F69" s="32"/>
+      <c r="G69" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14">
+        <v>69</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="32"/>
+      <c r="G70" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14">
+        <v>70</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71" s="32"/>
+      <c r="G71" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14">
+        <v>71</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" s="32"/>
+      <c r="G72" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14">
+        <v>72</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E73" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F61" s="40" t="s">
+      <c r="F73" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="G61" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="16">
-        <v>61</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="17" t="s">
+      <c r="G73" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="14">
+        <v>73</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H74" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="14">
+        <v>74</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H75" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14">
+        <v>75</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E62" s="25" t="s">
+      <c r="D76" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F62" s="40" t="s">
+      <c r="F76" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="G62" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A63" s="16">
-        <v>62</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="17" t="s">
+      <c r="G76" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="14">
+        <v>76</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="25" t="s">
+      <c r="D77" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F77" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="G63" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A64" s="16">
-        <v>63</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="17" t="s">
+      <c r="G77" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="14">
+        <v>77</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E64" s="25" t="s">
+      <c r="D78" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F64" s="40" t="s">
+      <c r="F78" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="G64" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="16">
-        <v>64</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="17" t="s">
+      <c r="G78" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="14">
+        <v>78</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E65" s="25" t="s">
+      <c r="D79" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F65" s="40" t="s">
+      <c r="F79" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="G65" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
-        <v>65</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="17" t="s">
+      <c r="G79" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14">
+        <v>79</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E66" s="25" t="s">
+      <c r="D80" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F66" s="40" t="s">
+      <c r="F80" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="G66" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
-        <v>66</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="17" t="s">
+      <c r="G80" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14">
+        <v>80</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E67" s="25" t="s">
+      <c r="D81" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F67" s="40" t="s">
+      <c r="F81" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="G67" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A68" s="16">
-        <v>67</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="16">
-        <v>68</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="17" t="s">
+      <c r="G81" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="14">
+        <v>81</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F82" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H82" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="14">
+        <v>82</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D83" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E69" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A70" s="16">
-        <v>69</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="17" t="s">
+      <c r="E83" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F83" s="32"/>
+      <c r="G83" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="14">
+        <v>83</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D84" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F84" s="32"/>
+      <c r="G84" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="14">
+        <v>84</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H85" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="14">
+        <v>85</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F86" s="32"/>
+      <c r="G86" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="14">
+        <v>86</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F87" s="32"/>
+      <c r="G87" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="14">
+        <v>87</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H88" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="14">
+        <v>88</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="14">
+        <v>89</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H90" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="14">
+        <v>90</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F91" s="32"/>
+      <c r="G91" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="14">
+        <v>91</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F92" s="32"/>
+      <c r="G92" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="14">
+        <v>92</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F93" s="32"/>
+      <c r="G93" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="14">
+        <v>93</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F94" s="32"/>
+      <c r="G94" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="14">
+        <v>94</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F95" s="32"/>
+      <c r="G95" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="14">
+        <v>95</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E70" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="16">
-        <v>70</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="17" t="s">
+      <c r="E96" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F96" s="32"/>
+      <c r="G96" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="14">
+        <v>96</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D97" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A72" s="16">
-        <v>71</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A73" s="16">
-        <v>72</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F73" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="16">
-        <v>73</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="17" t="s">
+      <c r="E97" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F97" s="32"/>
+      <c r="G97" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="67.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="14">
+        <v>97</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F98" s="32"/>
+      <c r="G98" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="67.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="14">
+        <v>98</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F99" s="32"/>
+      <c r="G99" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="67.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="14">
+        <v>99</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F100" s="32"/>
+      <c r="G100" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="67.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="14">
+        <v>100</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F101" s="32"/>
+      <c r="G101" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="14">
+        <v>101</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F102" s="32"/>
+      <c r="G102" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="14">
+        <v>102</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F74" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G74" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="H74" s="45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="16">
-        <v>74</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="17" t="s">
+      <c r="D103" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F103" s="32"/>
+      <c r="G103" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="14">
+        <v>103</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D75" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F75" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G75" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="H75" s="45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="16">
-        <v>75</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F76" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
-        <v>76</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="G77" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A78" s="16">
-        <v>77</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F78" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="G78" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="16">
-        <v>78</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F79" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A80" s="16">
-        <v>79</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F80" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="G80" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="16">
-        <v>80</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F81" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="G81" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="16">
-        <v>81</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="17" t="s">
+      <c r="D104" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F104" s="32"/>
+      <c r="G104" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="14">
+        <v>104</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F105" s="32"/>
+      <c r="G105" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="14">
+        <v>105</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F106" s="32"/>
+      <c r="G106" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="14">
+        <v>106</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D82" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F82" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G82" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="H82" s="45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="16">
-        <v>82</v>
-      </c>
-      <c r="B83" s="17" t="s">
+      <c r="D107" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F107" s="32"/>
+      <c r="G107" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="14">
+        <v>107</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F108" s="32"/>
+      <c r="G108" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="14">
+        <v>108</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F109" s="32"/>
+      <c r="G109" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="14">
+        <v>109</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F110" s="32"/>
+      <c r="G110" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="14">
+        <v>110</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F111" s="32"/>
+      <c r="G111" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="14">
+        <v>111</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F112" s="32"/>
+      <c r="G112" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="14">
+        <v>112</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F113" s="32"/>
+      <c r="G113" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="14">
+        <v>113</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F114" s="32"/>
+      <c r="G114" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="14">
+        <v>114</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F115" s="32"/>
+      <c r="G115" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="14">
+        <v>115</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F116" s="32"/>
+      <c r="G116" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="41.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="17">
+        <v>116</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F117" s="35"/>
+      <c r="G117" s="25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="E118" s="28">
+        <f>COUNTIF(E$2:E$117, "P")</f>
         <v>83</v>
       </c>
-      <c r="C83" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F83" s="35"/>
-      <c r="G83" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A84" s="16">
-        <v>83</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="16">
-        <v>84</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F85" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G85" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="H85" s="45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="16">
-        <v>85</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F86" s="35"/>
-      <c r="G86" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A87" s="16">
-        <v>86</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F87" s="35"/>
-      <c r="G87" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="16">
-        <v>87</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F88" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G88" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="H88" s="45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A89" s="16">
-        <v>88</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F89" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="G89" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="16">
-        <v>89</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F90" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G90" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="H90" s="45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="16">
-        <v>90</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F91" s="35"/>
-      <c r="G91" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="16">
-        <v>91</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F92" s="35"/>
-      <c r="G92" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A93" s="16">
-        <v>92</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F93" s="35"/>
-      <c r="G93" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="16">
-        <v>93</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="16">
-        <v>94</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F95" s="35"/>
-      <c r="G95" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A96" s="16">
-        <v>95</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A97" s="16">
-        <v>96</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F97" s="35"/>
-      <c r="G97" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="16">
-        <v>97</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F98" s="35"/>
-      <c r="G98" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="16">
-        <v>98</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F99" s="35"/>
-      <c r="G99" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="16">
-        <v>99</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F100" s="35"/>
-      <c r="G100" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="16">
-        <v>100</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F101" s="35"/>
-      <c r="G101" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="16">
-        <v>101</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F102" s="35"/>
-      <c r="G102" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="16">
-        <v>102</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F103" s="35"/>
-      <c r="G103" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="16">
-        <v>103</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F104" s="35"/>
-      <c r="G104" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A105" s="16">
-        <v>104</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F105" s="35"/>
-      <c r="G105" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="16">
-        <v>105</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F106" s="35"/>
-      <c r="G106" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A107" s="16">
-        <v>106</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F107" s="35"/>
-      <c r="G107" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A108" s="16">
-        <v>107</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F108" s="35"/>
-      <c r="G108" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="16">
-        <v>108</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F109" s="35"/>
-      <c r="G109" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="16">
-        <v>109</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F110" s="35"/>
-      <c r="G110" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="16">
-        <v>110</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F111" s="35"/>
-      <c r="G111" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="16">
-        <v>111</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F112" s="35"/>
-      <c r="G112" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A113" s="16">
-        <v>112</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F113" s="35"/>
-      <c r="G113" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="16">
-        <v>113</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F114" s="35"/>
-      <c r="G114" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A115" s="16">
-        <v>114</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E115" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F115" s="35"/>
-      <c r="G115" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A116" s="16">
-        <v>115</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F116" s="35"/>
-      <c r="G116" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="19">
-        <v>116</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D117" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E117" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="F117" s="38"/>
-      <c r="G117" s="28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D118" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="E118" s="31">
-        <f>COUNTIF(E$2:E$117, "P")</f>
-        <v>88</v>
-      </c>
-      <c r="F118" s="36"/>
-      <c r="G118" s="42">
+      <c r="F118" s="33"/>
+      <c r="G118" s="39">
         <f>COUNTIF(G$2:G$117, "P")</f>
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D119" s="29" t="s">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E119" s="32">
+      <c r="E119" s="29">
         <f>COUNTIF(E$2:E$117, "F")</f>
-        <v>28</v>
-      </c>
-      <c r="F119" s="36"/>
-      <c r="G119" s="43">
+        <v>27</v>
+      </c>
+      <c r="F119" s="33"/>
+      <c r="G119" s="40">
         <f>COUNTIF(G$2:G$117, "F")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D120" s="29" t="s">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D120" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="E120" s="32">
+      <c r="E120" s="29">
         <v>0</v>
       </c>
-      <c r="F120" s="36"/>
-      <c r="G120" s="43">
+      <c r="F120" s="33"/>
+      <c r="G120" s="40">
         <f>COUNTIF(G$2:G$117, "-")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D121" s="30" t="s">
+    <row r="121" spans="1:7" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D121" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="E121" s="33">
+      <c r="E121" s="30">
         <f>SUM(E118:E119)</f>
-        <v>116</v>
-      </c>
-      <c r="F121" s="36"/>
-      <c r="G121" s="44">
+        <v>110</v>
+      </c>
+      <c r="F121" s="33"/>
+      <c r="G121" s="41">
         <f>SUM(G118:G120)</f>
         <v>116</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G121" xr:uid="{053DC658-2D43-4625-8939-12DF42722175}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="부수효과:_x000a_알람상태도 OFF"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="C55:D60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E2:G84 E86:G87 E85 G85 E89:G89 E88 G88 E91:G117 E90 G90">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>E2="F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G117">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>AND(E2="F", G2="P")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>H74="F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>H75="F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>F85="F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>F88="F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>F90="F"</formula>
     </cfRule>
   </conditionalFormatting>
